--- a/JMC_flight_arrives/flight_arrives_JMC_2.xlsx
+++ b/JMC_flight_arrives/flight_arrives_JMC_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\defaultuser0\OneDrive - Universidad Nacional de Colombia\beda\beda_1\IO2\02_queueing_theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D63AC5-D4E9-49D1-BA03-4C8DDE915586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D5768C-6B66-460B-8B0C-9BA5DC485976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{422CC713-71D4-4F77-B9A6-F07A28520F0E}"/>
+    <workbookView xWindow="-20610" yWindow="915" windowWidth="20730" windowHeight="11160" xr2:uid="{422CC713-71D4-4F77-B9A6-F07A28520F0E}"/>
   </bookViews>
   <sheets>
     <sheet name="hoja1" sheetId="1" r:id="rId1"/>
@@ -939,7 +939,7 @@
   <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -980,7 +980,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1048,7 +1048,7 @@
         <v>0.22083333333333333</v>
       </c>
       <c r="E6" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
         <v>0.25069444444444444</v>
       </c>
       <c r="E8" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1099,7 +1099,7 @@
         <v>0.25763888888888886</v>
       </c>
       <c r="E9" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1116,7 +1116,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="E10" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>0.27430555555555558</v>
       </c>
       <c r="E11" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>0.28541666666666665</v>
       </c>
       <c r="E12" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1167,7 +1167,7 @@
         <v>0.2902777777777778</v>
       </c>
       <c r="E13" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
         <v>0.2902777777777778</v>
       </c>
       <c r="E14" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="E15" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1218,7 +1218,7 @@
         <v>0.31319444444444444</v>
       </c>
       <c r="E16" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
         <v>0.3215277777777778</v>
       </c>
       <c r="E17" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1252,7 +1252,7 @@
         <v>0.32777777777777778</v>
       </c>
       <c r="E18" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1269,7 +1269,7 @@
         <v>0.34791666666666665</v>
       </c>
       <c r="E19" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
         <v>0.34861111111111109</v>
       </c>
       <c r="E20" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1303,7 +1303,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E21" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1320,7 +1320,7 @@
         <v>0.35694444444444445</v>
       </c>
       <c r="E22" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1337,7 +1337,7 @@
         <v>0.36527777777777776</v>
       </c>
       <c r="E23" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>0.37430555555555556</v>
       </c>
       <c r="E24" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1371,7 +1371,7 @@
         <v>0.37569444444444444</v>
       </c>
       <c r="E25" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
         <v>0.38472222222222224</v>
       </c>
       <c r="E26" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1405,7 +1405,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E27" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>0.39791666666666664</v>
       </c>
       <c r="E28" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
         <v>0.39861111111111114</v>
       </c>
       <c r="E29" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1456,7 +1456,7 @@
         <v>0.40625</v>
       </c>
       <c r="E30" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1473,7 +1473,7 @@
         <v>0.40694444444444444</v>
       </c>
       <c r="E31" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1490,7 +1490,7 @@
         <v>0.41180555555555554</v>
       </c>
       <c r="E32" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E33" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1524,7 +1524,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E34" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1541,7 +1541,7 @@
         <v>0.41944444444444445</v>
       </c>
       <c r="E35" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1558,7 +1558,7 @@
         <v>0.42638888888888887</v>
       </c>
       <c r="E36" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1575,7 +1575,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="E37" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1592,7 +1592,7 @@
         <v>0.44583333333333336</v>
       </c>
       <c r="E38" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1609,7 +1609,7 @@
         <v>0.44722222222222224</v>
       </c>
       <c r="E39" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1626,7 +1626,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="E40" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1643,7 +1643,7 @@
         <v>0.45694444444444443</v>
       </c>
       <c r="E41" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1660,7 +1660,7 @@
         <v>0.46388888888888891</v>
       </c>
       <c r="E42" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>0.47847222222222224</v>
       </c>
       <c r="E43" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1694,7 +1694,7 @@
         <v>0.48125000000000001</v>
       </c>
       <c r="E44" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1711,7 +1711,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="E45" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1728,7 +1728,7 @@
         <v>0.49375000000000002</v>
       </c>
       <c r="E46" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1745,7 +1745,7 @@
         <v>0.51527777777777772</v>
       </c>
       <c r="E47" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1762,7 +1762,7 @@
         <v>0.5180555555555556</v>
       </c>
       <c r="E48" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1779,7 +1779,7 @@
         <v>0.51875000000000004</v>
       </c>
       <c r="E49" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1796,7 +1796,7 @@
         <v>0.52013888888888893</v>
       </c>
       <c r="E50" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1813,7 +1813,7 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="E51" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1830,7 +1830,7 @@
         <v>0.53541666666666665</v>
       </c>
       <c r="E52" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1847,7 +1847,7 @@
         <v>0.53680555555555554</v>
       </c>
       <c r="E53" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1864,7 +1864,7 @@
         <v>0.54791666666666672</v>
       </c>
       <c r="E54" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1881,7 +1881,7 @@
         <v>0.55138888888888893</v>
       </c>
       <c r="E55" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1898,7 +1898,7 @@
         <v>0.55486111111111114</v>
       </c>
       <c r="E56" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>0.55625000000000002</v>
       </c>
       <c r="E57" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1932,7 +1932,7 @@
         <v>0.55972222222222223</v>
       </c>
       <c r="E58" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1949,7 +1949,7 @@
         <v>0.56041666666666667</v>
       </c>
       <c r="E59" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1966,7 +1966,7 @@
         <v>0.56527777777777777</v>
       </c>
       <c r="E60" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1983,7 +1983,7 @@
         <v>0.58125000000000004</v>
       </c>
       <c r="E61" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2000,7 +2000,7 @@
         <v>0.58402777777777781</v>
       </c>
       <c r="E62" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2017,7 +2017,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="E63" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2034,7 +2034,7 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="E64" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2051,7 +2051,7 @@
         <v>0.59236111111111112</v>
       </c>
       <c r="E65" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2068,7 +2068,7 @@
         <v>0.59444444444444444</v>
       </c>
       <c r="E66" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2085,7 +2085,7 @@
         <v>0.60972222222222228</v>
       </c>
       <c r="E67" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2102,7 +2102,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="E68" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2119,7 +2119,7 @@
         <v>0.63472222222222219</v>
       </c>
       <c r="E69" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
         <v>0.63749999999999996</v>
       </c>
       <c r="E70" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2153,7 +2153,7 @@
         <v>0.63958333333333328</v>
       </c>
       <c r="E71" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2170,7 +2170,7 @@
         <v>0.64097222222222228</v>
       </c>
       <c r="E72" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2187,7 +2187,7 @@
         <v>0.64375000000000004</v>
       </c>
       <c r="E73" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2204,7 +2204,7 @@
         <v>0.64722222222222225</v>
       </c>
       <c r="E74" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2221,7 +2221,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="E75" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>0.67847222222222225</v>
       </c>
       <c r="E76" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2255,7 +2255,7 @@
         <v>0.67847222222222225</v>
       </c>
       <c r="E77" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2272,7 +2272,7 @@
         <v>0.68055555555555558</v>
       </c>
       <c r="E78" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2289,7 +2289,7 @@
         <v>0.69166666666666665</v>
       </c>
       <c r="E79" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2306,7 +2306,7 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="E80" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2323,7 +2323,7 @@
         <v>0.69513888888888886</v>
       </c>
       <c r="E81" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2340,7 +2340,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="E82" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2357,7 +2357,7 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="E83" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2374,7 +2374,7 @@
         <v>0.72638888888888886</v>
       </c>
       <c r="E84" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2391,7 +2391,7 @@
         <v>0.72638888888888886</v>
       </c>
       <c r="E85" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2408,7 +2408,7 @@
         <v>0.72847222222222219</v>
       </c>
       <c r="E86" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="E87" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2442,7 +2442,7 @@
         <v>0.73750000000000004</v>
       </c>
       <c r="E88" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2459,7 +2459,7 @@
         <v>0.74305555555555558</v>
       </c>
       <c r="E89" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2476,7 +2476,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="E90" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2493,7 +2493,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="E91" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2510,7 +2510,7 @@
         <v>0.76597222222222228</v>
       </c>
       <c r="E92" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2527,7 +2527,7 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="E93" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2544,7 +2544,7 @@
         <v>0.77222222222222225</v>
       </c>
       <c r="E94" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2561,7 +2561,7 @@
         <v>0.78819444444444442</v>
       </c>
       <c r="E95" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2578,7 +2578,7 @@
         <v>0.78888888888888886</v>
       </c>
       <c r="E96" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2595,7 +2595,7 @@
         <v>0.79236111111111107</v>
       </c>
       <c r="E97" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="E98" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2629,7 +2629,7 @@
         <v>0.80486111111111114</v>
       </c>
       <c r="E99" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2646,7 +2646,7 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="E100" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2663,7 +2663,7 @@
         <v>0.81736111111111109</v>
       </c>
       <c r="E101" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2680,7 +2680,7 @@
         <v>0.81874999999999998</v>
       </c>
       <c r="E102" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2697,7 +2697,7 @@
         <v>0.81944444444444442</v>
       </c>
       <c r="E103" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2714,7 +2714,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E104" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2731,7 +2731,7 @@
         <v>0.8305555555555556</v>
       </c>
       <c r="E105" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2748,7 +2748,7 @@
         <v>0.83194444444444449</v>
       </c>
       <c r="E106" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2765,7 +2765,7 @@
         <v>0.84375</v>
       </c>
       <c r="E107" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2782,7 +2782,7 @@
         <v>0.85138888888888886</v>
       </c>
       <c r="E108" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="E109" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2816,7 +2816,7 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="E110" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2833,7 +2833,7 @@
         <v>0.86111111111111116</v>
       </c>
       <c r="E111" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2850,7 +2850,7 @@
         <v>0.8618055555555556</v>
       </c>
       <c r="E112" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2867,7 +2867,7 @@
         <v>0.8618055555555556</v>
       </c>
       <c r="E113" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2884,7 +2884,7 @@
         <v>0.87291666666666667</v>
       </c>
       <c r="E114" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2901,7 +2901,7 @@
         <v>0.88194444444444442</v>
       </c>
       <c r="E115" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2918,7 +2918,7 @@
         <v>0.88611111111111107</v>
       </c>
       <c r="E116" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2935,7 +2935,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="E117" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2952,7 +2952,7 @@
         <v>0.89861111111111114</v>
       </c>
       <c r="E118" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2969,7 +2969,7 @@
         <v>0.90694444444444444</v>
       </c>
       <c r="E119" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2986,7 +2986,7 @@
         <v>0.90763888888888888</v>
       </c>
       <c r="E120" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3003,7 +3003,7 @@
         <v>0.92986111111111114</v>
       </c>
       <c r="E121" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
         <v>0.93472222222222223</v>
       </c>
       <c r="E122" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3037,7 +3037,7 @@
         <v>0.94861111111111107</v>
       </c>
       <c r="E123" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -3054,7 +3054,7 @@
         <v>0.95208333333333328</v>
       </c>
       <c r="E124" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3071,7 +3071,7 @@
         <v>0.95347222222222228</v>
       </c>
       <c r="E125" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3088,7 +3088,7 @@
         <v>0.95694444444444449</v>
       </c>
       <c r="E126" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3105,7 +3105,7 @@
         <v>0.96458333333333335</v>
       </c>
       <c r="E127" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3122,7 +3122,7 @@
         <v>0.96597222222222223</v>
       </c>
       <c r="E128" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3139,7 +3139,7 @@
         <v>0.96875</v>
       </c>
       <c r="E129" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -3156,7 +3156,7 @@
         <v>0.97083333333333333</v>
       </c>
       <c r="E130" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3173,7 +3173,7 @@
         <v>0.97291666666666665</v>
       </c>
       <c r="E131" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3190,7 +3190,7 @@
         <v>0.9770833333333333</v>
       </c>
       <c r="E132" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3207,7 +3207,7 @@
         <v>0.97847222222222219</v>
       </c>
       <c r="E133" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3224,7 +3224,7 @@
         <v>0.98611111111111116</v>
       </c>
       <c r="E134" s="2">
-        <v>45388</v>
+        <v>45391</v>
       </c>
     </row>
   </sheetData>
